--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_110.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_110.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7452</v>
+        <v>1.877</v>
       </c>
       <c r="J3" t="n">
-        <v>13.12</v>
+        <v>25.69</v>
       </c>
       <c r="K3" t="n">
-        <v>411.19</v>
+        <v>865.6799999999999</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>842.0633</v>
+        <v>890.1369999999999</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6196</v>
+        <v>1.7425</v>
       </c>
       <c r="J4" t="n">
-        <v>21.58</v>
+        <v>1.57</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5599999999999</v>
+        <v>49.27</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>790.8013999999999</v>
+        <v>812.8389</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>7.1983</v>
+        <v>7.7638</v>
       </c>
       <c r="J5" t="n">
-        <v>27.03</v>
+        <v>26.49</v>
       </c>
       <c r="K5" t="n">
-        <v>3493.16</v>
+        <v>3693</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.24</v>
+        <v>7.95</v>
       </c>
       <c r="R5" t="n">
-        <v>3072.3043</v>
+        <v>3187.5378</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>8.639900000000001</v>
+        <v>9.473100000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>26.72</v>
+        <v>26.46</v>
       </c>
       <c r="K6" t="n">
-        <v>4144.46</v>
+        <v>4500.59</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.67</v>
+        <v>6.77</v>
       </c>
       <c r="R6" t="n">
-        <v>2488.43</v>
+        <v>2712.66</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9819</v>
+        <v>4.3539</v>
       </c>
       <c r="J7" t="n">
-        <v>31.17</v>
+        <v>31.28</v>
       </c>
       <c r="K7" t="n">
-        <v>2228.57</v>
+        <v>2445.07</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.87</v>
+        <v>4.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1815.4905</v>
+        <v>1985.9184</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0938</v>
+        <v>50.9878</v>
       </c>
       <c r="J8" t="n">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="K8" t="n">
-        <v>3377.01</v>
+        <v>3774.1</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.98</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>3347.338</v>
+        <v>3657.8482</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>11.7196</v>
+        <v>14.551</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>399.61</v>
+        <v>485.82</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="R9" t="n">
-        <v>322.274</v>
+        <v>380.1957</v>
       </c>
     </row>
   </sheetData>
